--- a/Codigo/Version V2.1/Datos/Difusividad.xlsx
+++ b/Codigo/Version V2.1/Datos/Difusividad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozog\OneDrive\Escritorio\Cinetica Propia\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozog\OneDrive - Universidad de los Andes\Duodecimo semestre\Repositorio_Maestria\Codigo\Version V2.1\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{96F53E7C-9F8F-4DF5-852A-1907DBE65D16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5BAC416F-EE96-4C3B-B27C-D9F588A54A07}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{ACC44DB4-4834-48CF-9E77-409198B3925D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F52343C7-9C90-4EAC-98BE-047EEE14B67F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{81EA504D-B5AB-4750-8DD8-750B5AC10E58}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="19590" windowHeight="15150" activeTab="5" xr2:uid="{81EA504D-B5AB-4750-8DD8-750B5AC10E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Celina" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Ea (Kj/mol)</t>
   </si>
   <si>
-    <t>So</t>
-  </si>
-  <si>
     <t>LDPE</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>Por S. Halim Hamid</t>
+  </si>
+  <si>
+    <t>So [mol/cm3 pa]</t>
   </si>
 </sst>
 </file>
@@ -4876,8 +4876,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8399950" y="230790"/>
-          <a:ext cx="7241578" cy="5880631"/>
+          <a:off x="8399950" y="239949"/>
+          <a:ext cx="7241578" cy="6173707"/>
           <a:chOff x="8267699" y="0"/>
           <a:chExt cx="7258064" cy="5810292"/>
         </a:xfrm>
@@ -5291,9 +5291,9 @@
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>25</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2" s="2">
         <f>1/((273+C1)*8.314)</f>
         <v>4.0362096439578745E-4</v>
@@ -5378,7 +5378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -6432,32 +6432,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E75A82-8FB1-4FC1-B7EA-664A669DF32B}">
   <dimension ref="B3:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="K4" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="7:11" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="7:11" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>0.53</v>
@@ -6474,9 +6474,9 @@
         <v>1.7319391831659392</v>
       </c>
     </row>
-    <row r="5" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>5.25</v>
@@ -6493,9 +6493,9 @@
         <v>4.5285366972050589</v>
       </c>
     </row>
-    <row r="6" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>8.3000000000000007</v>
@@ -6512,9 +6512,9 @@
         <v>12.099130062115719</v>
       </c>
     </row>
-    <row r="7" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1.5</v>
@@ -6531,9 +6531,9 @@
         <v>6.2448533159295305</v>
       </c>
     </row>
-    <row r="8" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1">
         <v>4.8000000000000001E-4</v>
@@ -6550,9 +6550,9 @@
         <v>0.13295110134888283</v>
       </c>
     </row>
-    <row r="9" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>1.9</v>
@@ -6569,9 +6569,9 @@
         <v>14.491726200664084</v>
       </c>
     </row>
-    <row r="10" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>9.5000000000000001E-2</v>
@@ -6588,9 +6588,9 @@
         <v>16.211599945387899</v>
       </c>
     </row>
-    <row r="11" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>19</v>
@@ -6607,9 +6607,9 @@
         <v>1.397272164742142</v>
       </c>
     </row>
-    <row r="12" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12">
         <v>0.23</v>
@@ -6626,9 +6626,9 @@
         <v>14.308832992334874</v>
       </c>
     </row>
-    <row r="13" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13">
         <v>3.9E-2</v>
@@ -6645,9 +6645,9 @@
         <v>1.0395161352482347</v>
       </c>
     </row>
-    <row r="14" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14">
         <v>41</v>
@@ -6664,9 +6664,9 @@
         <v>0.14031514369981613</v>
       </c>
     </row>
-    <row r="15" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15">
         <v>8.5</v>
@@ -6683,9 +6683,9 @@
         <v>5.5273156083168971</v>
       </c>
     </row>
-    <row r="16" spans="7:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16">
         <v>70</v>
@@ -6702,9 +6702,9 @@
         <v>0.35868159000658151</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1.5</v>
@@ -6718,9 +6718,9 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>3.4</v>
@@ -6733,9 +6733,9 @@
         <v>3.4E-8</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21">
         <v>7.1</v>
@@ -6748,9 +6748,9 @@
         <v>7.1E-8</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22">
         <v>1.4</v>
@@ -6763,14 +6763,14 @@
         <v>1.4E-8</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6784,12 +6784,12 @@
   <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>32</v>
       </c>
@@ -6800,13 +6800,13 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="1">
         <v>8.6999999999999997E-6</v>
       </c>
@@ -6814,10 +6814,11 @@
         <v>36.4</v>
       </c>
       <c r="E3" s="1">
-        <v>2.5000000000000002E-6</v>
+        <f>0.00000148 *0.001</f>
+        <v>1.4800000000000001E-9</v>
       </c>
       <c r="F3">
-        <v>36.4</v>
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -6833,9 +6834,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.192E-3</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>3.7241715289837102E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.2039999999999998E-3</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>3.5769385652617801E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.2160000000000001E-3</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>3.3341420906081198E-7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.228E-3</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>3.1102479168034502E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.2399999999999998E-3</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>3.0107341944756098E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.2520000000000001E-3</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>2.8618557981850398E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.264E-3</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>2.7006940116916802E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.2759999999999998E-3</v>
       </c>
@@ -7026,7 +7027,7 @@
         <v>2.5606683460435001E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.2880000000000001E-3</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>2.4233121692036497E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3.3E-3</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>2.3086293581497399E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.3119999999999998E-3</v>
       </c>
@@ -7086,7 +7087,7 @@
         <v>2.1920833077526699E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3.3240000000000001E-3</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>2.0767063799382001E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.336E-3</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>1.9720588654899899E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3.3479999999999998E-3</v>
       </c>
@@ -7146,7 +7147,7 @@
         <v>1.87457415345942E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.3600000000000001E-3</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>1.76627515501058E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.372E-3</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>1.6887183335373701E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.3839999999999999E-3</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>1.5729768591386401E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.3960000000000001E-3</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>1.5181453660977301E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.408E-3</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3.4199999999999999E-3</v>
       </c>
@@ -7292,7 +7293,7 @@
         <v>3.1707999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.4320000000000002E-3</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>0.53900000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.444E-3</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>0.37019999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.4559999999999999E-3</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>1.16937274507098E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.4680000000000002E-3</v>
       </c>
@@ -7398,7 +7399,7 @@
         <v>1.10896878637144E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.48E-3</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>1.0503091487369E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.4919999999999999E-3</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>1.0078071223679999E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.5279999999999999E-3</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>2.0420738659565101E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.5400000000000002E-3</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>1.9651903709399301E-7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.552E-3</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>1.8576278735486399E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.5639999999999999E-3</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>1.7622714149733099E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.5760000000000002E-3</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>1.6703426996953401E-7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.5160774951795001E-3</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>2.19450656128143E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.50361766596272E-3</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>2.32702652897642E-7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.1796621063263199E-3</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>1.0687522805376799E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.16596272151317E-3</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>1.1331713762045499E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.0999265448535401E-3</v>
       </c>
@@ -7522,11 +7523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCFD1CB-E93B-410D-914B-3FC1C90B486C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="104" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="104" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7537,58 +7538,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA2F202-5725-4707-A9D7-98A87FBC98D3}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1">
         <v>8.6999999999999997E-6</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*1000000</f>
-        <v>8.6999999999999993</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
         <v>36400</v>
       </c>
       <c r="E2" s="1">
-        <v>2.5000000000000002E-6</v>
+        <v>2.5400000000000001E-11</v>
       </c>
       <c r="F2">
-        <f>36400</f>
-        <v>36400</v>
+        <v>1200</v>
       </c>
       <c r="H2" s="1">
         <f>C2*EXP(-D2/(8.314*$B$10))</f>
-        <v>3.6220149232391278E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6.2448533159295309E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
         <v>4.4800000000000003E-6</v>
@@ -7611,9 +7610,9 @@
         <v>4.5282526972925657E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>4.3000000000000001E-7</v>
@@ -7637,9 +7636,9 @@
         <v>1.6636681767833879E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>1.4999999999999999E-7</v>
@@ -7663,9 +7662,9 @@
         <v>1.663617752432558E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>1.2499999999999999E-7</v>
@@ -7689,9 +7688,9 @@
         <v>1.1190494422098743E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1">
         <v>3.8000000000000001E-7</v>
@@ -7715,9 +7714,9 @@
         <v>3.6667509556057892E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>4.2500000000000003E-5</v>
@@ -7741,16 +7740,16 @@
         <v>1.2096354679606418E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1">
         <v>298</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -7766,9 +7765,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1">
         <v>4.7E-7</v>
@@ -7782,9 +7781,9 @@
         <v>-1700</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1">
         <v>9.7000000000000003E-7</v>
@@ -7798,9 +7797,9 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1">
         <v>5.5000000000000003E-7</v>
@@ -7814,9 +7813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
         <v>6.8999999999999996E-7</v>
@@ -7830,9 +7829,9 @@
         <v>-31400</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1">
         <v>2.8999999999999998E-7</v>
@@ -7846,7 +7845,7 @@
         <v>-7900</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>7.1199999999999999E-2</v>
       </c>
@@ -7856,23 +7855,23 @@
         <v>3.17552E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4.46E-5</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7883,6 +7882,90 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Is_Collaboration_Space_Locked xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Invited_Teachers xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Teachers xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Distribution_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <LMS_Mappings xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <FolderType xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <CultureName xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Templates xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Members xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Member_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <NotebookType xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Leaders xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <Has_Leaders_Only_SectionGroup xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Owner xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Math_Settings xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Invited_Members xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <AppVersion xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <TeamsChannelId xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Invited_Students xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Invited_Leaders xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
+    <Students xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006E073622718B7D418B69CBE92FF13C49" ma:contentTypeVersion="39" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5f1dbbd8d2bc6d63873560f8f91a64fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2d185e16-06da-45ab-8500-654d664b7dd3" xmlns:ns4="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0256b4d38701b5e0b7a2941a706499e5" ns3:_="" ns4:_="">
     <xsd:import namespace="2d185e16-06da-45ab-8500-654d664b7dd3"/>
@@ -8375,91 +8458,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59BC3ED2-B145-456D-B17E-3307C54DB7AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc"/>
+    <ds:schemaRef ds:uri="2d185e16-06da-45ab-8500-654d664b7dd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Is_Collaboration_Space_Locked xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Invited_Teachers xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Teachers xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Distribution_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <LMS_Mappings xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <FolderType xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <CultureName xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Templates xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Members xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Member_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <NotebookType xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Leaders xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <Has_Leaders_Only_SectionGroup xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Owner xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Math_Settings xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Invited_Members xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <AppVersion xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <TeamsChannelId xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Invited_Students xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Invited_Leaders xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc" xsi:nil="true"/>
-    <Students xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91F98FC-DA5B-4AE9-A6DD-2E45FD7B13AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B278D2-CA39-41B5-AF06-42A48A15C470}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8476,29 +8500,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91F98FC-DA5B-4AE9-A6DD-2E45FD7B13AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59BC3ED2-B145-456D-B17E-3307C54DB7AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f8a3fab-e0af-4131-8cc8-5f2165a4edfc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2d185e16-06da-45ab-8500-654d664b7dd3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>